--- a/src/main/resources/templates/excels/project-timesheet.xlsx
+++ b/src/main/resources/templates/excels/project-timesheet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\hrm-tool\src\main\resources\templates\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD113D3-9FEB-4639-BD2B-51CF6669CA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EF66D3-8FB8-47A8-AEA9-D1C303B3E153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="3240" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Name1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
@@ -57,11 +57,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:area(lastCell="D11")</t>
+          <t>jx:area(lastCell="D10")
+jx:each(items="project.members" var="member" lastCell="D10" multisheet="member.name")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{7B702EFE-7DC2-41CC-9424-8E44C760D7E7}">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{82D2EB43-802F-44A5-A680-7B3909760E4D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Mark Pham:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:if(condition="!member.normalHours.isEmpty()", lastCell="D5")
+jx:each(items="member.normalHours" var="normal" lastCell="D5")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{DCA3039F-D79A-41B6-B2D8-82C2CB1B0924}">
       <text>
         <r>
           <rPr>
@@ -81,31 +107,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="project.members" var="member" lastCell="D10" multisheet="member.name")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{82D2EB43-802F-44A5-A680-7B3909760E4D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Mark Pham:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(items="member.timeSheets" var="timesheet" lastCell="D5")</t>
+jx:each(items="member.overtimeHours" var="overtime" lastCell="D9")</t>
         </r>
       </text>
     </comment>
@@ -114,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>#</t>
   </si>
@@ -134,15 +136,6 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>${timesheet.date}</t>
-  </si>
-  <si>
-    <t>${timesheet.taskDescription}</t>
-  </si>
-  <si>
-    <t>${timesheet.workingHours}</t>
-  </si>
-  <si>
     <t>Employee Name</t>
   </si>
   <si>
@@ -150,6 +143,30 @@
   </si>
   <si>
     <t>${project.name}</t>
+  </si>
+  <si>
+    <t>${normal.date}</t>
+  </si>
+  <si>
+    <t>${normal.taskDescription}</t>
+  </si>
+  <si>
+    <t>${normal.workingHours}</t>
+  </si>
+  <si>
+    <t>${overtime.date}</t>
+  </si>
+  <si>
+    <t>${overtime.taskDescription}</t>
+  </si>
+  <si>
+    <t>${overtime.workingHours}</t>
+  </si>
+  <si>
+    <t>Total Normal Hours</t>
+  </si>
+  <si>
+    <t>Total Overtime Hours</t>
   </si>
 </sst>
 </file>
@@ -269,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -347,36 +364,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
@@ -416,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -468,15 +455,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -486,25 +464,25 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -728,23 +706,24 @@
   <dimension ref="A1:T987"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="90.42578125" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>11</v>
+      <c r="A1" s="27" t="s">
+        <v>8</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -764,10 +743,10 @@
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -787,12 +766,12 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -842,14 +821,14 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
-      <c r="B5" s="23" t="s">
-        <v>6</v>
+      <c r="B5" s="20" t="s">
+        <v>9</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>7</v>
+      <c r="C5" s="21" t="s">
+        <v>10</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>8</v>
+      <c r="D5" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -870,9 +849,14 @@
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="B6" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="D6" s="15">
+        <f>SUM(D5)</f>
+        <v>0</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -891,12 +875,12 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -915,7 +899,7 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -945,12 +929,16 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
-        <v>1</v>
+      <c r="A9" s="18"/>
+      <c r="B9" s="20" t="s">
+        <v>12</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -970,9 +958,14 @@
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="D10" s="15">
+        <f>SUM(D9)</f>
+        <v>0</v>
+      </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -22414,9 +22407,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/templates/excels/project-timesheet.xlsx
+++ b/src/main/resources/templates/excels/project-timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\hrm-tool\src\main\resources\templates\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EF66D3-8FB8-47A8-AEA9-D1C303B3E153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79BEBEF-FC7E-451F-AA34-705C8D66F656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,8 +82,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="!member.normalHours.isEmpty()", lastCell="D5")
-jx:each(items="member.normalHours" var="normal" lastCell="D5")</t>
+          <t>jx:each(items="member.normalHours" var="normal" lastCell="D5")</t>
         </r>
       </text>
     </comment>
@@ -286,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -319,47 +318,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -403,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -423,9 +387,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -443,20 +404,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -464,13 +416,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -483,6 +435,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -706,7 +664,7 @@
   <dimension ref="A1:T987"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -718,17 +676,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -748,11 +706,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -766,17 +724,17 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -790,23 +748,23 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -820,21 +778,21 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -848,20 +806,20 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14">
         <f>SUM(D5)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -875,17 +833,17 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -899,23 +857,23 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -929,21 +887,21 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -957,20 +915,20 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15">
+      <c r="C10" s="15"/>
+      <c r="D10" s="14">
         <f>SUM(D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -984,11 +942,11 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1002,15 +960,15 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1024,15 +982,15 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1428,10 +1386,10 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1450,10 +1408,10 @@
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1472,10 +1430,10 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>

--- a/src/main/resources/templates/excels/project-timesheet.xlsx
+++ b/src/main/resources/templates/excels/project-timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\hrm-tool\src\main\resources\templates\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79BEBEF-FC7E-451F-AA34-705C8D66F656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DF8B4E-9B59-4493-BF29-791AB1F0AD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,11 +410,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -438,10 +435,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,7 +664,7 @@
   <dimension ref="A1:T987"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D9"/>
+      <selection activeCell="B9" activeCellId="1" sqref="B5 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -672,16 +672,17 @@
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="90.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -724,12 +725,12 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -779,13 +780,13 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="13"/>
@@ -833,12 +834,12 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -857,7 +858,7 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -888,13 +889,13 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="13"/>
